--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -176,9 +171,6 @@
     <t>1 h 30  min</t>
   </si>
   <si>
-    <t>Mes de 8 h, inacabat</t>
-  </si>
-  <si>
     <t>Acabar rebot de les boles.</t>
   </si>
   <si>
@@ -186,6 +178,9 @@
   </si>
   <si>
     <t>Pang_G3</t>
+  </si>
+  <si>
+    <t>10 h</t>
   </si>
 </sst>
 </file>
@@ -318,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,7 +539,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -580,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5"/>
@@ -980,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="5"/>
@@ -1004,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <t>5 min</t>
   </si>
@@ -81,18 +81,9 @@
     <t>Particules: bricks destructibles.</t>
   </si>
   <si>
-    <t>Afegir el modul de boosts.</t>
-  </si>
-  <si>
     <t>Ajustar els boosts.</t>
   </si>
   <si>
-    <t>Contador de vides.</t>
-  </si>
-  <si>
-    <t>Arreglar l'interaccio personatge-escales.</t>
-  </si>
-  <si>
     <t>Animacio de mort del personatge.</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Escena de selecció de nivell.</t>
   </si>
   <si>
-    <t>Escenes de victoria.</t>
-  </si>
-  <si>
     <t>"Timers" de nivell.</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>Modul de fonts.</t>
   </si>
   <si>
-    <t>Sergio, Marc</t>
-  </si>
-  <si>
     <t>Obtenir les músiques i sons.</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>Boosts: double  hook, pause, life bomb.</t>
   </si>
   <si>
-    <t>8 h</t>
-  </si>
-  <si>
     <t>Renderitzat del  hook.</t>
   </si>
   <si>
@@ -174,13 +156,97 @@
     <t>Acabar rebot de les boles.</t>
   </si>
   <si>
-    <t>Distribució de la interfaç.</t>
-  </si>
-  <si>
     <t>Pang_G3</t>
   </si>
   <si>
     <t>10 h</t>
+  </si>
+  <si>
+    <t>Player 1 i Player 2</t>
+  </si>
+  <si>
+    <t>15 h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 h </t>
+  </si>
+  <si>
+    <t>20 h</t>
+  </si>
+  <si>
+    <t>Pujar escales</t>
+  </si>
+  <si>
+    <t>Sergio, Marc, Guillem</t>
+  </si>
+  <si>
+    <t>5 h</t>
+  </si>
+  <si>
+    <t>Boles</t>
+  </si>
+  <si>
+    <t>4 h</t>
+  </si>
+  <si>
+    <t>16 h</t>
+  </si>
+  <si>
+    <t>"Continue?"</t>
+  </si>
+  <si>
+    <t>6 h</t>
+  </si>
+  <si>
+    <t>Moviment</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>Hook</t>
+  </si>
+  <si>
+    <t>Hook que es queda al sostre</t>
+  </si>
+  <si>
+    <t>Lògica: moviment, "mort", colisions</t>
+  </si>
+  <si>
+    <t>Tipus de hook, canvi entre ells</t>
+  </si>
+  <si>
+    <t>Implementar un per cada jugador</t>
+  </si>
+  <si>
+    <t>Animacions</t>
+  </si>
+  <si>
+    <t>Ajustar valros respecte el joc</t>
+  </si>
+  <si>
+    <t>Escenes</t>
+  </si>
+  <si>
+    <t>Escenes de transició entre nivells</t>
+  </si>
+  <si>
+    <t>Distribució de la interfície</t>
+  </si>
+  <si>
+    <t>Boosts</t>
+  </si>
+  <si>
+    <t>Comptador de vides.</t>
+  </si>
+  <si>
+    <t>David / Marc</t>
+  </si>
+  <si>
+    <t>Afegir el mòdul, física i col·lisions</t>
+  </si>
+  <si>
+    <t>Mòdul de fonts</t>
   </si>
 </sst>
 </file>
@@ -244,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -253,6 +319,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,20 +610,21 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,258 +639,206 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="F15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>44</v>
+      <c r="B18" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="5"/>
@@ -827,11 +850,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
@@ -839,55 +860,29 @@
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,111 +890,338 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>4</v>
+      <c r="F27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t>5 min</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Mòdul de fonts</t>
+  </si>
+  <si>
+    <t>Inserir el Player 2</t>
+  </si>
+  <si>
+    <t>Escena final</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -327,6 +333,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +623,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,290 +658,283 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="10" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9" t="s">
-        <v>66</v>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9" t="s">
-        <v>67</v>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
+      <c r="E21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>0</v>
+      <c r="E26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,291 +942,340 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E40" t="s">
         <v>6</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E43" t="s">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F43" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>3</v>
+      <c r="F45" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="2" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>5 min</t>
   </si>
@@ -253,6 +253,24 @@
   </si>
   <si>
     <t>Escena final</t>
+  </si>
+  <si>
+    <t>Bricks destructibles</t>
+  </si>
+  <si>
+    <t>2 h 30</t>
+  </si>
+  <si>
+    <t>5 h 30 min</t>
+  </si>
+  <si>
+    <t>David  / Marc</t>
+  </si>
+  <si>
+    <t>Modul de mapes</t>
+  </si>
+  <si>
+    <t>Creació dels tiles dels mapes</t>
   </si>
 </sst>
 </file>
@@ -316,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -329,6 +347,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -340,6 +359,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +643,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,7 +783,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -837,14 +857,14 @@
         <v>36</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -853,20 +873,20 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -913,13 +933,13 @@
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -973,7 +993,7 @@
       <c r="A31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E31" t="s">
@@ -984,7 +1004,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1002,20 +1022,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>38</v>
+      <c r="B35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,259 +1049,297 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="E40" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F45" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="2" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t>5 min</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Renderitzat dels bricks.</t>
   </si>
   <si>
-    <t>Creació dels 9 primers nivells.</t>
-  </si>
-  <si>
     <t>Inserir músiques dels diferents nivells.</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Modul de fonts.</t>
   </si>
   <si>
-    <t>Obtenir les músiques i sons.</t>
-  </si>
-  <si>
     <t>Estimat</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t xml:space="preserve">60 h </t>
   </si>
   <si>
-    <t>20 h</t>
-  </si>
-  <si>
     <t>Pujar escales</t>
   </si>
   <si>
@@ -264,13 +255,16 @@
     <t>5 h 30 min</t>
   </si>
   <si>
-    <t>David  / Marc</t>
-  </si>
-  <si>
     <t>Modul de mapes</t>
   </si>
   <si>
-    <t>Creació dels tiles dels mapes</t>
+    <t>Implementació i disseny dels tilemaps</t>
+  </si>
+  <si>
+    <t>David / Guillem</t>
+  </si>
+  <si>
+    <t>Obtenció de sons</t>
   </si>
 </sst>
 </file>
@@ -302,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -330,19 +324,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -351,15 +352,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +647,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,11 +661,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -672,274 +676,298 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8" t="s">
+      <c r="F18" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>60</v>
+      <c r="F21" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
+      <c r="A22" s="8"/>
+      <c r="B22" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
-        <v>69</v>
+      <c r="A23" s="8"/>
+      <c r="B23" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>43</v>
+      <c r="F23" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="B24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="17" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -947,400 +975,505 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
+      <c r="B28" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
-        <v>48</v>
+      <c r="F31" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>72</v>
+      <c r="B33" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="F37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B46" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6" t="s">
+      <c r="F46" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="F47" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
       <c r="B50" s="15" t="s">
-        <v>83</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
+      <c r="A51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>24</v>
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="13"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="13"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="13"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="13"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="13"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="F67" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>46</v>
+      <c r="F68" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bibliotecas\Documents\GitHub\Pang\Pang\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>5 min</t>
   </si>
@@ -60,9 +65,6 @@
     <t>Marc</t>
   </si>
   <si>
-    <t>Marc, David</t>
-  </si>
-  <si>
     <t>Ajustar gravetat i velocitat de les boles.</t>
   </si>
   <si>
@@ -111,9 +113,6 @@
     <t>"Timer" de seleccio de nivell.</t>
   </si>
   <si>
-    <t>Modul de fonts.</t>
-  </si>
-  <si>
     <t>Estimat</t>
   </si>
   <si>
@@ -135,9 +134,6 @@
     <t>30  min</t>
   </si>
   <si>
-    <t>7 h</t>
-  </si>
-  <si>
     <t>Boosts: double  hook, pause, life bomb.</t>
   </si>
   <si>
@@ -168,9 +164,6 @@
     <t>Pujar escales</t>
   </si>
   <si>
-    <t>Sergio, Marc, Guillem</t>
-  </si>
-  <si>
     <t>5 h</t>
   </si>
   <si>
@@ -231,9 +224,6 @@
     <t>Comptador de vides.</t>
   </si>
   <si>
-    <t>David / Marc</t>
-  </si>
-  <si>
     <t>Afegir el mòdul, física i col·lisions</t>
   </si>
   <si>
@@ -249,9 +239,6 @@
     <t>Bricks destructibles</t>
   </si>
   <si>
-    <t>2 h 30</t>
-  </si>
-  <si>
     <t>5 h 30 min</t>
   </si>
   <si>
@@ -261,10 +248,28 @@
     <t>Implementació i disseny dels tilemaps</t>
   </si>
   <si>
-    <t>David / Guillem</t>
-  </si>
-  <si>
     <t>Obtenció de sons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marc</t>
+  </si>
+  <si>
+    <t>Boosts: shield</t>
+  </si>
+  <si>
+    <t>2 h 15 min</t>
+  </si>
+  <si>
+    <t>2 h 30 min</t>
+  </si>
+  <si>
+    <t>Edició dels sons</t>
+  </si>
+  <si>
+    <t>Sergio, Guillem</t>
+  </si>
+  <si>
+    <t>David, Marc</t>
   </si>
 </sst>
 </file>
@@ -337,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -363,7 +368,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,10 +651,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -661,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,10 +680,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,17 +691,21 @@
         <v>10</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -705,13 +713,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
@@ -719,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
@@ -744,231 +752,228 @@
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>0</v>
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>47</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
+      <c r="C16" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="6" t="s">
-        <v>4</v>
+      <c r="E17" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>65</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>57</v>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
-        <v>27</v>
+      <c r="B22" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>5</v>
+      <c r="E22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>74</v>
+      <c r="B24" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>2</v>
+      <c r="E24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>68</v>
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>5</v>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,15 +981,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,117 +995,87 @@
         <v>10</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5" t="s">
+      <c r="E30" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>46</v>
+      <c r="F30" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+      <c r="A32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="E32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>23</v>
+      <c r="B36" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,63 +1083,68 @@
         <v>11</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>55</v>
+      <c r="F38" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="13" t="s">
-        <v>40</v>
+      <c r="B40" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>3</v>
+      <c r="E40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
-        <v>59</v>
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
       <c r="B42" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="4"/>
@@ -1174,134 +1152,143 @@
         <v>6</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
       <c r="B43" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
       <c r="B44" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>11</v>
+      <c r="A46" t="s">
+        <v>10</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
+      <c r="A48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>78</v>
+      <c r="A49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>24</v>
+      <c r="B51" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>81</v>
+      <c r="A53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="4"/>
@@ -1313,26 +1300,31 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="13"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="13"/>
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="19"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -1346,18 +1338,36 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
+      <c r="A58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
+      <c r="A59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
@@ -1367,114 +1377,67 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="B61" s="13"/>
       <c r="C61" s="2"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
+      <c r="A63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
+      <c r="A64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A65" s="8"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
   <si>
     <t>5 min</t>
   </si>
@@ -260,9 +260,6 @@
     <t>2 h 15 min</t>
   </si>
   <si>
-    <t>2 h 30 min</t>
-  </si>
-  <si>
     <t>Edició dels sons</t>
   </si>
   <si>
@@ -270,6 +267,24 @@
   </si>
   <si>
     <t>David, Marc</t>
+  </si>
+  <si>
+    <t>Puntuació de les boles</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>17 h</t>
+  </si>
+  <si>
+    <t>0 min</t>
+  </si>
+  <si>
+    <t>Hasta la entrega</t>
+  </si>
+  <si>
+    <t>Arreglar bugs</t>
   </si>
 </sst>
 </file>
@@ -651,10 +666,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,10 +711,10 @@
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="16" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,338 +775,331 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="6" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="7" t="s">
-        <v>59</v>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="13"/>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="10" t="s">
-        <v>5</v>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
+      <c r="F20" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="13" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>69</v>
+      <c r="A22" s="8"/>
+      <c r="B22" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>2</v>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="B24" s="13"/>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>66</v>
+      <c r="B25" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>4</v>
+      <c r="E25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>10</v>
+      <c r="A26" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="16" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="13"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>22</v>
+      <c r="B37" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,60 +1107,60 @@
         <v>11</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>3</v>
+      <c r="E41" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>55</v>
+      <c r="B42" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,7 +1168,7 @@
         <v>75</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
@@ -1168,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,15 +1184,15 @@
         <v>75</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,103 +1200,103 @@
         <v>75</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
+      <c r="A50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="2"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>73</v>
+      <c r="B52" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>23</v>
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="4"/>
@@ -1300,30 +1308,34 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
+      <c r="A54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="B55" s="12"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="13" t="s">
+      <c r="A56" t="s">
         <v>79</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4"/>
@@ -1331,34 +1343,30 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
+      <c r="A57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B58" s="13"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
@@ -1366,15 +1374,24 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
+      <c r="A60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="13"/>
@@ -1384,35 +1401,26 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B62" s="13"/>
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,24 +1428,43 @@
         <v>12</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -668,7 +668,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>

--- a/Pang/pang timetable.xlsx
+++ b/Pang/pang timetable.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bibliotecas\Documents\GitHub\Pang\Pang\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>5 min</t>
   </si>
@@ -285,6 +280,9 @@
   </si>
   <si>
     <t>Arreglar bugs</t>
+  </si>
+  <si>
+    <t>Arreglant bugs en general</t>
   </si>
 </sst>
 </file>
@@ -357,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -383,6 +381,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,10 +667,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -886,236 +887,235 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>5</v>
+      <c r="F21" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="13" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>69</v>
+      <c r="A23" s="8"/>
+      <c r="B23" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>2</v>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>4</v>
+      <c r="E26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>10</v>
+      <c r="A27" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F29" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="16" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="13"/>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>22</v>
+      <c r="B38" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,60 +1123,60 @@
         <v>11</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>3</v>
+      <c r="E42" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>55</v>
+      <c r="B43" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>75</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,15 +1200,15 @@
         <v>75</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,103 +1216,103 @@
         <v>75</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
+      <c r="A51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>73</v>
+      <c r="B53" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>23</v>
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
@@ -1324,30 +1324,34 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+      <c r="A55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="B56" s="12"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>78</v>
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>
@@ -1355,34 +1359,30 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
+      <c r="A58" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B59" s="13"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="4"/>
@@ -1390,15 +1390,24 @@
         <v>0</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="13"/>
+      <c r="A61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
@@ -1408,35 +1417,26 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B63" s="13"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,25 +1444,41 @@
         <v>12</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>86</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>84</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>85</v>
       </c>
     </row>
